--- a/comandos.xlsx
+++ b/comandos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="470">
   <si>
     <t>Comando</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Lista archivos</t>
   </si>
   <si>
-    <t>Linux/macOS</t>
-  </si>
-  <si>
     <t>ls -la</t>
   </si>
   <si>
@@ -56,10 +53,1387 @@
     <t>Cambia de directorio</t>
   </si>
   <si>
-    <t>Linux/Windows/macOS</t>
-  </si>
-  <si>
     <t>cd /home/usuario</t>
+  </si>
+  <si>
+    <t>Lista archivos y carpetas</t>
+  </si>
+  <si>
+    <t>Linux / macOS</t>
+  </si>
+  <si>
+    <t>Linux / Windows / macOS</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Muestra el directorio actual</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Limpia la pantalla</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>Crea una carpeta</t>
+  </si>
+  <si>
+    <t>mkdir nueva_carpeta</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>Elimina archivos o carpetas</t>
+  </si>
+  <si>
+    <t>rm -r carpeta</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Copia archivos o carpetas</t>
+  </si>
+  <si>
+    <t>cp archivo.txt /destino</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Mueve o renombra archivos</t>
+  </si>
+  <si>
+    <t>mv archivo.txt nuevo.txt</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Muestra contenido de archivo</t>
+  </si>
+  <si>
+    <t>cat archivo.txt</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>Muestra archivo paginado</t>
+  </si>
+  <si>
+    <t>less archivo.txt</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>Crea archivo vacío</t>
+  </si>
+  <si>
+    <t>touch archivo.txt</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>Cambia permisos</t>
+  </si>
+  <si>
+    <t>chmod 755 script.sh</t>
+  </si>
+  <si>
+    <t>chown</t>
+  </si>
+  <si>
+    <t>Cambia propietario</t>
+  </si>
+  <si>
+    <t>Linux (root)</t>
+  </si>
+  <si>
+    <t>chown user:user archivo</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>Lista procesos</t>
+  </si>
+  <si>
+    <t>ps aux</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>Monitor de procesos</t>
+  </si>
+  <si>
+    <t>htop</t>
+  </si>
+  <si>
+    <t>Monitor de procesos avanzado</t>
+  </si>
+  <si>
+    <t>Linux (si está instalado)</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>Finaliza un proceso</t>
+  </si>
+  <si>
+    <t>kill 1234</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Muestra uso de disco</t>
+  </si>
+  <si>
+    <t>df -h</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>Muestra tamaño de carpetas</t>
+  </si>
+  <si>
+    <t>du -sh carpeta</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Muestra memoria RAM</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>free -h</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>Muestra interfaces de red</t>
+  </si>
+  <si>
+    <t>ip a</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>Muestra red (legacy)</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>Prueba conectividad</t>
+  </si>
+  <si>
+    <t>ping google.com</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>Descarga archivos</t>
+  </si>
+  <si>
+    <t>wget url</t>
+  </si>
+  <si>
+    <t>curl</t>
+  </si>
+  <si>
+    <t>Transferencia de datos</t>
+  </si>
+  <si>
+    <t>curl http://sitio</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>Administrador de paquetes</t>
+  </si>
+  <si>
+    <t>Debian / Ubuntu</t>
+  </si>
+  <si>
+    <t>apt install nginx</t>
+  </si>
+  <si>
+    <t>apt-get</t>
+  </si>
+  <si>
+    <t>Gestión de paquetes clásica</t>
+  </si>
+  <si>
+    <t>apt-get update</t>
+  </si>
+  <si>
+    <t>dnf</t>
+  </si>
+  <si>
+    <t>Fedora / RHEL</t>
+  </si>
+  <si>
+    <t>dnf install httpd</t>
+  </si>
+  <si>
+    <t>yum</t>
+  </si>
+  <si>
+    <t>Administrador de paquetes (legacy)</t>
+  </si>
+  <si>
+    <t>CentOS / RHEL</t>
+  </si>
+  <si>
+    <t>yum install httpd</t>
+  </si>
+  <si>
+    <t>pacman</t>
+  </si>
+  <si>
+    <t>Arch Linux</t>
+  </si>
+  <si>
+    <t>pacman -S nginx</t>
+  </si>
+  <si>
+    <t>brew</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>brew install node</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>Muestra info del sistema</t>
+  </si>
+  <si>
+    <t>uname -a</t>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t>Muestra usuario actual</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Historial de comandos</t>
+  </si>
+  <si>
+    <t>shutdown</t>
+  </si>
+  <si>
+    <t>Apaga el sistema</t>
+  </si>
+  <si>
+    <t>shutdown now</t>
+  </si>
+  <si>
+    <t>reboot</t>
+  </si>
+  <si>
+    <t>Reinicia el sistema</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Muestra estructura de carpetas</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>Muestra info detallada de archivo</t>
+  </si>
+  <si>
+    <t>stat archivo.txt</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>Ejecuta un comando repetidamente</t>
+  </si>
+  <si>
+    <t>watch df -h</t>
+  </si>
+  <si>
+    <t>uptime</t>
+  </si>
+  <si>
+    <t>Tiempo encendido del sistema</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>Crea alias de comandos</t>
+  </si>
+  <si>
+    <t>alias ll='ls -la'</t>
+  </si>
+  <si>
+    <t>unalias</t>
+  </si>
+  <si>
+    <t>Elimina alias</t>
+  </si>
+  <si>
+    <t>unalias ll</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Muestra variables de entorno</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>Define variable de entorno</t>
+  </si>
+  <si>
+    <t>export VAR=valor</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Windows CMD</t>
+  </si>
+  <si>
+    <t>setx</t>
+  </si>
+  <si>
+    <t>Crea variable de entorno persistente</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>setx VAR valor</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>Imprime texto o variables</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>echo $HOME</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Muestra fecha y hora</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Mide tiempo de ejecución</t>
+  </si>
+  <si>
+    <t>time comando</t>
+  </si>
+  <si>
+    <t>crontab</t>
+  </si>
+  <si>
+    <t>Programador de tareas</t>
+  </si>
+  <si>
+    <t>crontab -e</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>Ejecuta tarea programada</t>
+  </si>
+  <si>
+    <t>at 22:00</t>
+  </si>
+  <si>
+    <t>systemctl</t>
+  </si>
+  <si>
+    <t>Gestiona servicios</t>
+  </si>
+  <si>
+    <t>systemd Linux</t>
+  </si>
+  <si>
+    <t>systemctl status ssh</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>Gestiona servicios legacy</t>
+  </si>
+  <si>
+    <t>service apache2 restart</t>
+  </si>
+  <si>
+    <t>journalctl</t>
+  </si>
+  <si>
+    <t>Ver logs del sistema</t>
+  </si>
+  <si>
+    <t>journalctl -xe</t>
+  </si>
+  <si>
+    <t>dmesg</t>
+  </si>
+  <si>
+    <t>Log del kernel</t>
+  </si>
+  <si>
+    <t>dmesg | less</t>
+  </si>
+  <si>
+    <t>lsblk</t>
+  </si>
+  <si>
+    <t>Lista discos y particiones</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>Monta dispositivos</t>
+  </si>
+  <si>
+    <t>mount /dev/sdb1 /mnt</t>
+  </si>
+  <si>
+    <t>umount</t>
+  </si>
+  <si>
+    <t>Desmonta dispositivos</t>
+  </si>
+  <si>
+    <t>umount /mnt</t>
+  </si>
+  <si>
+    <t>blkid</t>
+  </si>
+  <si>
+    <t>Muestra UUID de discos</t>
+  </si>
+  <si>
+    <t>fdisk</t>
+  </si>
+  <si>
+    <t>Gestiona particiones</t>
+  </si>
+  <si>
+    <t>fdisk /dev/sda</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>Comprime/descomprime archivos</t>
+  </si>
+  <si>
+    <t>tar -czvf backup.tar.gz carpeta</t>
+  </si>
+  <si>
+    <t>gzip</t>
+  </si>
+  <si>
+    <t>Comprime archivos</t>
+  </si>
+  <si>
+    <t>gzip archivo</t>
+  </si>
+  <si>
+    <t>gunzip</t>
+  </si>
+  <si>
+    <t>Descomprime archivos</t>
+  </si>
+  <si>
+    <t>gunzip archivo.gz</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>Comprime en zip</t>
+  </si>
+  <si>
+    <t>zip archivo.zip archivo.txt</t>
+  </si>
+  <si>
+    <t>unzip</t>
+  </si>
+  <si>
+    <t>Descomprime zip</t>
+  </si>
+  <si>
+    <t>unzip archivo.zip</t>
+  </si>
+  <si>
+    <t>scp</t>
+  </si>
+  <si>
+    <t>Copia segura remota</t>
+  </si>
+  <si>
+    <t>scp archivo user@ip:/ruta</t>
+  </si>
+  <si>
+    <t>rsync</t>
+  </si>
+  <si>
+    <t>Sincroniza archivos</t>
+  </si>
+  <si>
+    <t>rsync -av carpeta /destino</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>Conexión remota</t>
+  </si>
+  <si>
+    <t>ssh user@ip</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>Muestra nombre del host</t>
+  </si>
+  <si>
+    <t>hostnamectl</t>
+  </si>
+  <si>
+    <t>Cambia nombre del host</t>
+  </si>
+  <si>
+    <t>hostnamectl set-hostname pc1</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>Muestra usuarios conectados</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Usuarios y actividad</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>Historial de logins</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>Muestra grupos del usuario</t>
+  </si>
+  <si>
+    <t>adduser</t>
+  </si>
+  <si>
+    <t>Crea usuario</t>
+  </si>
+  <si>
+    <t>adduser juan</t>
+  </si>
+  <si>
+    <t>userdel</t>
+  </si>
+  <si>
+    <t>Elimina usuario</t>
+  </si>
+  <si>
+    <t>userdel juan</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>Cambia contraseña</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Cambia de usuario</t>
+  </si>
+  <si>
+    <t>su root</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t>Ejecuta como admin</t>
+  </si>
+  <si>
+    <t>sudo apt update</t>
+  </si>
+  <si>
+    <t>locate</t>
+  </si>
+  <si>
+    <t>Busca archivos por índice</t>
+  </si>
+  <si>
+    <t>locate archivo</t>
+  </si>
+  <si>
+    <t>updatedb</t>
+  </si>
+  <si>
+    <t>Actualiza base locate</t>
+  </si>
+  <si>
+    <t>whereis</t>
+  </si>
+  <si>
+    <t>Localiza binarios</t>
+  </si>
+  <si>
+    <t>whereis python</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>Muestra ruta del comando</t>
+  </si>
+  <si>
+    <t>which bash</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>Historial editable</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>Cierra sesión</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>cls</t>
+  </si>
+  <si>
+    <t>Limpia pantalla</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>Copia archivos</t>
+  </si>
+  <si>
+    <t>copy a.txt b.txt</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>Mueve archivos</t>
+  </si>
+  <si>
+    <t>move a.txt carpeta</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>Elimina archivos</t>
+  </si>
+  <si>
+    <t>del archivo.txt</t>
+  </si>
+  <si>
+    <t>tasklist</t>
+  </si>
+  <si>
+    <t>taskkill</t>
+  </si>
+  <si>
+    <t>Mata procesos</t>
+  </si>
+  <si>
+    <t>taskkill /PID 1234</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>Configura red</t>
+  </si>
+  <si>
+    <t>ipconfig /all</t>
+  </si>
+  <si>
+    <t>netstat</t>
+  </si>
+  <si>
+    <t>Estado de red</t>
+  </si>
+  <si>
+    <t>netstat -an</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>Tabla de rutas</t>
+  </si>
+  <si>
+    <t>route print</t>
+  </si>
+  <si>
+    <t>tracert</t>
+  </si>
+  <si>
+    <t>Traza de red</t>
+  </si>
+  <si>
+    <t>tracert google.com</t>
+  </si>
+  <si>
+    <t>powercfg</t>
+  </si>
+  <si>
+    <t>Gestión energía</t>
+  </si>
+  <si>
+    <t>powercfg /batteryreport</t>
+  </si>
+  <si>
+    <t>chkdsk</t>
+  </si>
+  <si>
+    <t>Chequeo de disco</t>
+  </si>
+  <si>
+    <t>chkdsk C:</t>
+  </si>
+  <si>
+    <t>sfc</t>
+  </si>
+  <si>
+    <t>Verifica sistema</t>
+  </si>
+  <si>
+    <t>sfc /scannow</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>Busca archivos por nombre o criterio</t>
+  </si>
+  <si>
+    <t>find / -name archivo.txt</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>Busca texto dentro de archivos</t>
+  </si>
+  <si>
+    <t>grep "error" archivo.log</t>
+  </si>
+  <si>
+    <t>awk</t>
+  </si>
+  <si>
+    <t>Procesa texto por columnas</t>
+  </si>
+  <si>
+    <t>awk '{print $1}' archivo</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>Edita texto por patrones</t>
+  </si>
+  <si>
+    <t>sed 's/error/ok/' archivo</t>
+  </si>
+  <si>
+    <t>xargs</t>
+  </si>
+  <si>
+    <t>Ejecuta comandos con salida previa</t>
+  </si>
+  <si>
+    <t>ls *.log | xargs rm</t>
+  </si>
+  <si>
+    <t>tee</t>
+  </si>
+  <si>
+    <t>Muestra y guarda salida</t>
+  </si>
+  <si>
+    <t>comando | tee salida.txt</t>
+  </si>
+  <si>
+    <t>nohup</t>
+  </si>
+  <si>
+    <t>Ejecuta comando en segundo plano</t>
+  </si>
+  <si>
+    <t>nohup script.sh &amp;</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>Envía proceso a segundo plano</t>
+  </si>
+  <si>
+    <t>bg %1</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>Devuelve proceso al frente</t>
+  </si>
+  <si>
+    <t>fg %1</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>Lista trabajos activos</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>Sesión persistente</t>
+  </si>
+  <si>
+    <t>tmux</t>
+  </si>
+  <si>
+    <t>Multiplexor de terminal</t>
+  </si>
+  <si>
+    <t>watchdog</t>
+  </si>
+  <si>
+    <t>Monitorea procesos</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>Cambia prioridad de proceso</t>
+  </si>
+  <si>
+    <t>nice -n 10 comando</t>
+  </si>
+  <si>
+    <t>renice</t>
+  </si>
+  <si>
+    <t>Modifica prioridad</t>
+  </si>
+  <si>
+    <t>renice -5 -p 1234</t>
+  </si>
+  <si>
+    <t>ulimit</t>
+  </si>
+  <si>
+    <t>Límites del sistema</t>
+  </si>
+  <si>
+    <t>ulimit -a</t>
+  </si>
+  <si>
+    <t>vmstat</t>
+  </si>
+  <si>
+    <t>Estado de memoria y CPU</t>
+  </si>
+  <si>
+    <t>iostat</t>
+  </si>
+  <si>
+    <t>Estado de discos</t>
+  </si>
+  <si>
+    <t>Monitor interactivo</t>
+  </si>
+  <si>
+    <t>strace</t>
+  </si>
+  <si>
+    <t>Traza llamadas al sistema</t>
+  </si>
+  <si>
+    <t>strace ls</t>
+  </si>
+  <si>
+    <t>lsof</t>
+  </si>
+  <si>
+    <t>Archivos abiertos</t>
+  </si>
+  <si>
+    <t>lsof -i :80</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>Conexiones TCP/UDP</t>
+  </si>
+  <si>
+    <t>nc -zv host 80</t>
+  </si>
+  <si>
+    <t>nmap</t>
+  </si>
+  <si>
+    <t>Escaneo de puertos</t>
+  </si>
+  <si>
+    <t>nmap 192.168.1.1</t>
+  </si>
+  <si>
+    <t>arp</t>
+  </si>
+  <si>
+    <t>Tabla ARP</t>
+  </si>
+  <si>
+    <t>arp -a</t>
+  </si>
+  <si>
+    <t>tcpdump</t>
+  </si>
+  <si>
+    <t>Captura de paquetes</t>
+  </si>
+  <si>
+    <t>tcpdump -i eth0</t>
+  </si>
+  <si>
+    <t>iptables</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>iptables -L</t>
+  </si>
+  <si>
+    <t>ufw</t>
+  </si>
+  <si>
+    <t>Firewall simplificado</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>ufw enable</t>
+  </si>
+  <si>
+    <t>firewall-cmd</t>
+  </si>
+  <si>
+    <t>RHEL / Fedora</t>
+  </si>
+  <si>
+    <t>firewall-cmd --list-all</t>
+  </si>
+  <si>
+    <t>getenforce</t>
+  </si>
+  <si>
+    <t>Estado SELinux</t>
+  </si>
+  <si>
+    <t>setenforce</t>
+  </si>
+  <si>
+    <t>Cambia SELinux</t>
+  </si>
+  <si>
+    <t>setenforce 0</t>
+  </si>
+  <si>
+    <t>mountpoint</t>
+  </si>
+  <si>
+    <t>Verifica montaje</t>
+  </si>
+  <si>
+    <t>mountpoint /mnt</t>
+  </si>
+  <si>
+    <t>lsusb</t>
+  </si>
+  <si>
+    <t>Lista dispositivos USB</t>
+  </si>
+  <si>
+    <t>lspci</t>
+  </si>
+  <si>
+    <t>Lista dispositivos PCI</t>
+  </si>
+  <si>
+    <t>Muestra carga del sistema</t>
+  </si>
+  <si>
+    <t>Muestra uso de memoria</t>
+  </si>
+  <si>
+    <t>free -m</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>Fuerza escritura a disco</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>Detiene el sistema</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Muestra sockets y puertos</t>
+  </si>
+  <si>
+    <t>ss -tulnp</t>
+  </si>
+  <si>
+    <t>nmcli</t>
+  </si>
+  <si>
+    <t>Configura red desde CLI</t>
+  </si>
+  <si>
+    <t>Linux (NetworkManager)</t>
+  </si>
+  <si>
+    <t>nmcli device status</t>
+  </si>
+  <si>
+    <t>timedatectl</t>
+  </si>
+  <si>
+    <t>Configura fecha y hora</t>
+  </si>
+  <si>
+    <t>timedatectl set-timezone America/Argentina/Buenos_Aires</t>
+  </si>
+  <si>
+    <t>localectl</t>
+  </si>
+  <si>
+    <t>Configura idioma y teclado</t>
+  </si>
+  <si>
+    <t>localectl set-keymap es</t>
+  </si>
+  <si>
+    <t>loginctl</t>
+  </si>
+  <si>
+    <t>Gestiona sesiones de usuario</t>
+  </si>
+  <si>
+    <t>loginctl list-sessions</t>
+  </si>
+  <si>
+    <t>crictl</t>
+  </si>
+  <si>
+    <t>Gestiona contenedores CRI</t>
+  </si>
+  <si>
+    <t>crictl ps</t>
+  </si>
+  <si>
+    <t>kubectl</t>
+  </si>
+  <si>
+    <t>Gestiona Kubernetes</t>
+  </si>
+  <si>
+    <t>kubectl get pods</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>Control de versiones</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>Clona repositorio</t>
+  </si>
+  <si>
+    <t>git clone repo_url</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>Actualiza repositorio</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Envía cambios</t>
+  </si>
+  <si>
+    <t>defaults</t>
+  </si>
+  <si>
+    <t>Lee/escribe preferencias</t>
+  </si>
+  <si>
+    <t>defaults read com.apple.finder</t>
+  </si>
+  <si>
+    <t>launchctl</t>
+  </si>
+  <si>
+    <t>launchctl list</t>
+  </si>
+  <si>
+    <t>spctl</t>
+  </si>
+  <si>
+    <t>Gestiona Gatekeeper</t>
+  </si>
+  <si>
+    <t>spctl --status</t>
+  </si>
+  <si>
+    <t>csrutil</t>
+  </si>
+  <si>
+    <t>Gestiona SIP</t>
+  </si>
+  <si>
+    <t>csrutil status</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Abre archivos/apps</t>
+  </si>
+  <si>
+    <t>open archivo.pdf</t>
+  </si>
+  <si>
+    <t>pbcopy</t>
+  </si>
+  <si>
+    <t>Copia al portapapeles</t>
+  </si>
+  <si>
+    <t>echo hola | pbcopy</t>
+  </si>
+  <si>
+    <t>pbpaste</t>
+  </si>
+  <si>
+    <t>Pega portapapeles</t>
+  </si>
+  <si>
+    <t>robocopy</t>
+  </si>
+  <si>
+    <t>Copia avanzada de archivos</t>
+  </si>
+  <si>
+    <t>robocopy C:\origen D:\destino /E</t>
+  </si>
+  <si>
+    <t>net use</t>
+  </si>
+  <si>
+    <t>Monta recursos de red</t>
+  </si>
+  <si>
+    <t>net use Z: \\server\share</t>
+  </si>
+  <si>
+    <t>net share</t>
+  </si>
+  <si>
+    <t>Gestiona carpetas compartidas</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>sc query</t>
+  </si>
+  <si>
+    <t>wevtutil</t>
+  </si>
+  <si>
+    <t>Gestiona logs de eventos</t>
+  </si>
+  <si>
+    <t>wevtutil qe System</t>
+  </si>
+  <si>
+    <t>dism</t>
+  </si>
+  <si>
+    <t>Mantiene imágenes Windows</t>
+  </si>
+  <si>
+    <t>dism /online /cleanup-image /restorehealth</t>
+  </si>
+  <si>
+    <t>bcdedit</t>
+  </si>
+  <si>
+    <t>Configura arranque</t>
+  </si>
+  <si>
+    <t>wmic</t>
+  </si>
+  <si>
+    <t>Consulta hardware/sistema</t>
+  </si>
+  <si>
+    <t>wmic cpu get name</t>
+  </si>
+  <si>
+    <t>certutil</t>
+  </si>
+  <si>
+    <t>Gestiona certificados</t>
+  </si>
+  <si>
+    <t>certutil -store my</t>
+  </si>
+  <si>
+    <t>powershell</t>
+  </si>
+  <si>
+    <t>Abre PowerShell</t>
+  </si>
+  <si>
+    <t>Get-Process</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>Get-Service</t>
+  </si>
+  <si>
+    <t>Lista servicios</t>
+  </si>
+  <si>
+    <t>Restart-Service</t>
+  </si>
+  <si>
+    <t>Reinicia servicio</t>
+  </si>
+  <si>
+    <t>Restart-Service spooler</t>
+  </si>
+  <si>
+    <t>Test-NetConnection</t>
+  </si>
+  <si>
+    <t>Test de red</t>
+  </si>
+  <si>
+    <t>Test-NetConnection google.com</t>
+  </si>
+  <si>
+    <t>Set-ExecutionPolicy</t>
+  </si>
+  <si>
+    <t>Política de scripts</t>
+  </si>
+  <si>
+    <t>Set-ExecutionPolicy RemoteSigned</t>
   </si>
 </sst>
 </file>
@@ -103,13 +1477,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,15 +1762,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -417,31 +1790,2397 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B98" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
+        <v>314</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" t="s">
+        <v>318</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" t="s">
+        <v>320</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>328</v>
+      </c>
+      <c r="B118" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>330</v>
+      </c>
+      <c r="B119" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>333</v>
+      </c>
+      <c r="B121" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>336</v>
+      </c>
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" t="s">
+        <v>340</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>342</v>
+      </c>
+      <c r="B124" t="s">
+        <v>343</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>345</v>
+      </c>
+      <c r="B125" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" t="s">
+        <v>141</v>
+      </c>
+      <c r="D125" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" t="s">
+        <v>349</v>
+      </c>
+      <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>351</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>354</v>
+      </c>
+      <c r="B128" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" t="s">
+        <v>356</v>
+      </c>
+      <c r="D128" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>358</v>
+      </c>
+      <c r="B129" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D129" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>361</v>
+      </c>
+      <c r="B130" t="s">
+        <v>362</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>363</v>
+      </c>
+      <c r="B131" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>366</v>
+      </c>
+      <c r="B132" t="s">
+        <v>367</v>
+      </c>
+      <c r="C132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>369</v>
+      </c>
+      <c r="B133" t="s">
+        <v>370</v>
+      </c>
+      <c r="C133" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" t="s">
+        <v>373</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>374</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>376</v>
+      </c>
+      <c r="B137" t="s">
+        <v>377</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>378</v>
+      </c>
+      <c r="B139" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>380</v>
+      </c>
+      <c r="B140" t="s">
+        <v>381</v>
+      </c>
+      <c r="C140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>383</v>
+      </c>
+      <c r="B141" t="s">
+        <v>384</v>
+      </c>
+      <c r="C141" t="s">
+        <v>385</v>
+      </c>
+      <c r="D141" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>387</v>
+      </c>
+      <c r="B142" t="s">
+        <v>388</v>
+      </c>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>390</v>
+      </c>
+      <c r="B143" t="s">
+        <v>391</v>
+      </c>
+      <c r="C143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144" t="s">
+        <v>394</v>
+      </c>
+      <c r="C144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>396</v>
+      </c>
+      <c r="B145" t="s">
+        <v>397</v>
+      </c>
+      <c r="C145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>399</v>
+      </c>
+      <c r="B146" t="s">
+        <v>400</v>
+      </c>
+      <c r="C146" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>402</v>
+      </c>
+      <c r="B147" t="s">
+        <v>403</v>
+      </c>
+      <c r="C147" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>405</v>
+      </c>
+      <c r="B148" t="s">
+        <v>406</v>
+      </c>
+      <c r="C148" t="s">
+        <v>141</v>
+      </c>
+      <c r="D148" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>408</v>
+      </c>
+      <c r="B149" t="s">
+        <v>409</v>
+      </c>
+      <c r="C149" t="s">
+        <v>141</v>
+      </c>
+      <c r="D149" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>410</v>
+      </c>
+      <c r="B150" t="s">
+        <v>411</v>
+      </c>
+      <c r="C150" t="s">
+        <v>141</v>
+      </c>
+      <c r="D150" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>412</v>
+      </c>
+      <c r="B151" t="s">
+        <v>413</v>
+      </c>
+      <c r="C151" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>420</v>
+      </c>
+      <c r="B154" t="s">
+        <v>421</v>
+      </c>
+      <c r="C154" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" t="s">
+        <v>424</v>
+      </c>
+      <c r="C155" t="s">
+        <v>98</v>
+      </c>
+      <c r="D155" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>426</v>
+      </c>
+      <c r="B156" t="s">
+        <v>427</v>
+      </c>
+      <c r="C156" t="s">
+        <v>98</v>
+      </c>
+      <c r="D156" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>429</v>
+      </c>
+      <c r="B157" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" t="s">
+        <v>98</v>
+      </c>
+      <c r="D157" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>431</v>
+      </c>
+      <c r="B158" t="s">
+        <v>432</v>
+      </c>
+      <c r="C158" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>434</v>
+      </c>
+      <c r="B159" t="s">
+        <v>435</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+      <c r="D159" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>437</v>
+      </c>
+      <c r="B160" t="s">
+        <v>438</v>
+      </c>
+      <c r="C160" t="s">
+        <v>137</v>
+      </c>
+      <c r="D160" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>439</v>
+      </c>
+      <c r="B161" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" t="s">
+        <v>137</v>
+      </c>
+      <c r="D161" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>441</v>
+      </c>
+      <c r="B162" t="s">
+        <v>442</v>
+      </c>
+      <c r="C162" t="s">
+        <v>137</v>
+      </c>
+      <c r="D162" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>444</v>
+      </c>
+      <c r="B163" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" t="s">
+        <v>137</v>
+      </c>
+      <c r="D163" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>447</v>
+      </c>
+      <c r="B164" t="s">
+        <v>448</v>
+      </c>
+      <c r="C164" t="s">
+        <v>137</v>
+      </c>
+      <c r="D164" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>449</v>
+      </c>
+      <c r="B165" t="s">
+        <v>450</v>
+      </c>
+      <c r="C165" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>452</v>
+      </c>
+      <c r="B166" t="s">
+        <v>453</v>
+      </c>
+      <c r="C166" t="s">
+        <v>137</v>
+      </c>
+      <c r="D166" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>455</v>
+      </c>
+      <c r="B167" t="s">
+        <v>456</v>
+      </c>
+      <c r="C167" t="s">
+        <v>137</v>
+      </c>
+      <c r="D167" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>457</v>
+      </c>
+      <c r="B168" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" t="s">
+        <v>458</v>
+      </c>
+      <c r="D168" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>459</v>
+      </c>
+      <c r="B169" t="s">
+        <v>460</v>
+      </c>
+      <c r="C169" t="s">
+        <v>458</v>
+      </c>
+      <c r="D169" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>461</v>
+      </c>
+      <c r="B170" t="s">
+        <v>462</v>
+      </c>
+      <c r="C170" t="s">
+        <v>458</v>
+      </c>
+      <c r="D170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>464</v>
+      </c>
+      <c r="B171" t="s">
+        <v>465</v>
+      </c>
+      <c r="C171" t="s">
+        <v>458</v>
+      </c>
+      <c r="D171" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>467</v>
+      </c>
+      <c r="B172" t="s">
+        <v>468</v>
+      </c>
+      <c r="C172" t="s">
+        <v>458</v>
+      </c>
+      <c r="D172" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
